--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
@@ -1667,7 +1667,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="billingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1687,7 +1687,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1718,7 +1718,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="typeofbill"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1735,7 +1735,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="admsrc"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1755,7 +1755,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="admtype"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1775,7 +1775,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="discharge-status"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1795,7 +1795,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="drg"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1815,7 +1815,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="admissionperiod"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2632,7 +2632,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
     &lt;code value="denialreason"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -2649,7 +2649,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategory"/&gt;
     &lt;code value="allowedunits"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
@@ -1750,7 +1750,7 @@
     <t>admtype</t>
   </si>
   <si>
-    <t xml:space="preserve">Claim Priority (Type) of Admission or Visit </t>
+    <t>Claim Priority (Type) of Admission or Visit</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14891" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14890" uniqueCount="1129">
   <si>
     <t>Path</t>
   </si>
@@ -1800,7 +1800,7 @@
     <t>DRG codes assigned</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CMSDRG</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CMSMS3MAPRDRG</t>
   </si>
   <si>
     <t>admissionperiod</t>
@@ -1868,7 +1868,7 @@
     <t>Provides health context for the evaluation of the products and/or services.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10CM</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CDCICD910CMDiagnosisCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.type</t>
@@ -1964,10 +1964,7 @@
     <t>Category of Procedure</t>
   </si>
   <si>
-    <t>Example procedure type codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-procedure-type</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBClaimProcedureType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.date</t>
@@ -1994,7 +1991,7 @@
     <t>This identifies the actual clinical procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/CMSICD910PCSProcedureCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
@@ -24547,13 +24544,11 @@
         <v>43</v>
       </c>
       <c r="W187" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X187" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X187" s="2"/>
+      <c r="Y187" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="Z187" t="s" s="2">
         <v>43</v>
@@ -24600,7 +24595,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24626,14 +24621,14 @@
         <v>285</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24682,7 +24677,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24711,7 +24706,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24737,14 +24732,14 @@
         <v>178</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24773,7 +24768,7 @@
       </c>
       <c r="X189" s="2"/>
       <c r="Y189" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>43</v>
@@ -24791,7 +24786,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>50</v>
@@ -24820,7 +24815,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24843,17 +24838,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="K190" t="s" s="2">
+      <c r="L190" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24902,7 +24897,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24931,7 +24926,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24957,14 +24952,14 @@
         <v>454</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -25013,7 +25008,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -25042,7 +25037,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25071,13 +25066,13 @@
         <v>317</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -25126,7 +25121,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>50</v>
@@ -25138,16 +25133,16 @@
         <v>43</v>
       </c>
       <c r="AI192" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AJ192" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK192" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL192" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>43</v>
@@ -25155,7 +25150,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25264,7 +25259,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25375,7 +25370,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25488,7 +25483,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25514,16 +25509,16 @@
         <v>465</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L196" t="s" s="2">
+      <c r="M196" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M196" t="s" s="2">
+      <c r="N196" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25572,7 +25567,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>50</v>
@@ -25601,7 +25596,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25624,17 +25619,17 @@
         <v>51</v>
       </c>
       <c r="J197" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="K197" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="K197" t="s" s="2">
+      <c r="L197" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25683,7 +25678,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>50</v>
@@ -25712,7 +25707,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25738,16 +25733,16 @@
         <v>52</v>
       </c>
       <c r="K198" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L198" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="M198" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>657</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25796,7 +25791,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25825,7 +25820,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25851,14 +25846,14 @@
         <v>346</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="L199" t="s" s="2">
-        <v>661</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25907,7 +25902,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25936,7 +25931,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26045,7 +26040,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26156,7 +26151,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26269,7 +26264,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26295,16 +26290,16 @@
         <v>534</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="M203" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M203" t="s" s="2">
+      <c r="N203" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26353,7 +26348,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26382,7 +26377,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26408,14 +26403,14 @@
         <v>178</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26443,11 +26438,11 @@
         <v>108</v>
       </c>
       <c r="X204" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="Y204" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="Y204" t="s" s="2">
-        <v>676</v>
-      </c>
       <c r="Z204" t="s" s="2">
         <v>43</v>
       </c>
@@ -26464,7 +26459,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26493,7 +26488,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26516,17 +26511,17 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="K205" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="K205" t="s" s="2">
+      <c r="L205" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26575,7 +26570,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26604,7 +26599,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26630,14 +26625,14 @@
         <v>346</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="L206" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26686,7 +26681,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26715,7 +26710,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26824,7 +26819,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26935,7 +26930,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -27048,7 +27043,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -27074,14 +27069,14 @@
         <v>454</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -27130,7 +27125,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -27159,7 +27154,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27185,14 +27180,14 @@
         <v>454</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="L211" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27241,7 +27236,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27270,7 +27265,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27296,14 +27291,14 @@
         <v>454</v>
       </c>
       <c r="K212" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L212" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27352,7 +27347,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27381,7 +27376,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27407,14 +27402,14 @@
         <v>454</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27463,7 +27458,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27492,7 +27487,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27518,14 +27513,14 @@
         <v>454</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="L214" t="s" s="2">
         <v>706</v>
-      </c>
-      <c r="L214" t="s" s="2">
-        <v>707</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27574,7 +27569,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27603,7 +27598,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27629,14 +27624,14 @@
         <v>178</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27665,7 +27660,7 @@
       </c>
       <c r="X215" s="2"/>
       <c r="Y215" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>43</v>
@@ -27683,7 +27678,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27712,7 +27707,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27738,16 +27733,16 @@
         <v>178</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="L216" t="s" s="2">
+      <c r="M216" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="M216" t="s" s="2">
+      <c r="N216" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27775,11 +27770,11 @@
         <v>116</v>
       </c>
       <c r="X216" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Y216" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Y216" t="s" s="2">
-        <v>720</v>
-      </c>
       <c r="Z216" t="s" s="2">
         <v>43</v>
       </c>
@@ -27796,7 +27791,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27825,11 +27820,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27851,16 +27846,16 @@
         <v>178</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>723</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="M217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27889,7 +27884,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27907,7 +27902,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>50</v>
@@ -27936,7 +27931,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27962,16 +27957,16 @@
         <v>178</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>729</v>
       </c>
-      <c r="L218" t="s" s="2">
+      <c r="M218" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M218" t="s" s="2">
+      <c r="N218" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -28000,7 +27995,7 @@
       </c>
       <c r="X218" s="2"/>
       <c r="Y218" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -28018,7 +28013,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -28047,7 +28042,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -28073,16 +28068,16 @@
         <v>178</v>
       </c>
       <c r="K219" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L219" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L219" t="s" s="2">
+      <c r="M219" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M219" t="s" s="2">
+      <c r="N219" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N219" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -28110,11 +28105,11 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y219" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="Y219" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
       </c>
@@ -28131,7 +28126,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28160,7 +28155,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28186,14 +28181,14 @@
         <v>510</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28242,7 +28237,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28271,7 +28266,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28294,17 +28289,17 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="K221" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="K221" t="s" s="2">
+      <c r="L221" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28332,11 +28327,11 @@
         <v>116</v>
       </c>
       <c r="X221" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="Y221" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="Y221" t="s" s="2">
-        <v>751</v>
-      </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
       </c>
@@ -28353,7 +28348,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28382,7 +28377,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28405,17 +28400,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="K222" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="K222" t="s" s="2">
+      <c r="L222" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28464,7 +28459,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28493,7 +28488,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28516,17 +28511,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="K223" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="K223" t="s" s="2">
+      <c r="L223" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28575,7 +28570,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28604,7 +28599,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28627,19 +28622,19 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="K224" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="K224" t="s" s="2">
+      <c r="L224" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="M224" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28688,7 +28683,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28717,7 +28712,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28740,19 +28735,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28801,7 +28796,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28830,7 +28825,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28853,17 +28848,17 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K226" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="K226" t="s" s="2">
+      <c r="L226" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L226" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28912,7 +28907,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28941,7 +28936,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28967,16 +28962,16 @@
         <v>178</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L227" t="s" s="2">
+      <c r="M227" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M227" t="s" s="2">
+      <c r="N227" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -29004,11 +28999,11 @@
         <v>116</v>
       </c>
       <c r="X227" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y227" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y227" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
       </c>
@@ -29025,7 +29020,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -29054,7 +29049,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -29080,14 +29075,14 @@
         <v>178</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -29115,11 +29110,11 @@
         <v>116</v>
       </c>
       <c r="X228" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="Y228" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="Y228" t="s" s="2">
-        <v>785</v>
-      </c>
       <c r="Z228" t="s" s="2">
         <v>43</v>
       </c>
@@ -29136,7 +29131,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29165,7 +29160,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29188,17 +29183,17 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="K229" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="K229" t="s" s="2">
+      <c r="L229" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="L229" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29247,7 +29242,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29276,7 +29271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29302,14 +29297,14 @@
         <v>454</v>
       </c>
       <c r="K230" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="L230" t="s" s="2">
         <v>792</v>
-      </c>
-      <c r="L230" t="s" s="2">
-        <v>793</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29358,7 +29353,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29387,7 +29382,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29413,14 +29408,14 @@
         <v>346</v>
       </c>
       <c r="K231" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="L231" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="L231" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -29457,7 +29452,7 @@
         <v>43</v>
       </c>
       <c r="AA231" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AB231" t="s" s="2">
         <v>488</v>
@@ -29469,7 +29464,7 @@
         <v>536</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29498,7 +29493,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29607,7 +29602,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29718,7 +29713,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29831,7 +29826,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29857,16 +29852,16 @@
         <v>178</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29894,11 +29889,11 @@
         <v>116</v>
       </c>
       <c r="X235" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="Y235" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="Y235" t="s" s="2">
-        <v>809</v>
-      </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
       </c>
@@ -29915,7 +29910,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>50</v>
@@ -29944,7 +29939,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29970,16 +29965,16 @@
         <v>178</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="M236" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -30007,11 +30002,11 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Y236" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="Y236" t="s" s="2">
-        <v>816</v>
-      </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
       </c>
@@ -30028,7 +30023,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -30057,7 +30052,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30080,19 +30075,19 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K237" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L237" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L237" t="s" s="2">
+      <c r="M237" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M237" t="s" s="2">
+      <c r="N237" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30141,7 +30136,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30170,7 +30165,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30193,19 +30188,19 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K238" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L238" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L238" t="s" s="2">
+      <c r="M238" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M238" t="s" s="2">
+      <c r="N238" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30254,7 +30249,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30283,10 +30278,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C239" t="s" s="2">
         <v>43</v>
@@ -30311,14 +30306,14 @@
         <v>346</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -30367,7 +30362,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30396,7 +30391,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30505,7 +30500,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30616,7 +30611,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30729,7 +30724,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30755,16 +30750,16 @@
         <v>178</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L243" t="s" s="2">
+      <c r="M243" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M243" t="s" s="2">
+      <c r="N243" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30793,7 +30788,7 @@
       </c>
       <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30811,7 +30806,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>50</v>
@@ -30840,7 +30835,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30866,16 +30861,16 @@
         <v>178</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L244" t="s" s="2">
+      <c r="M244" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30903,11 +30898,11 @@
         <v>116</v>
       </c>
       <c r="X244" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Y244" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="Y244" t="s" s="2">
-        <v>816</v>
-      </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
       </c>
@@ -30924,7 +30919,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30953,7 +30948,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30976,19 +30971,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L245" t="s" s="2">
+      <c r="M245" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M245" t="s" s="2">
+      <c r="N245" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -31037,7 +31032,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -31066,7 +31061,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31089,19 +31084,19 @@
         <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K246" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L246" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L246" t="s" s="2">
+      <c r="M246" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M246" t="s" s="2">
+      <c r="N246" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -31150,7 +31145,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31179,10 +31174,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C247" t="s" s="2">
         <v>43</v>
@@ -31207,14 +31202,14 @@
         <v>346</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -31263,7 +31258,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -31292,7 +31287,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31401,7 +31396,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31512,7 +31507,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31625,7 +31620,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31651,16 +31646,16 @@
         <v>178</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L251" t="s" s="2">
+      <c r="M251" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M251" t="s" s="2">
+      <c r="N251" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31670,7 +31665,7 @@
         <v>43</v>
       </c>
       <c r="R251" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>43</v>
@@ -31688,11 +31683,11 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="Y251" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="Y251" t="s" s="2">
-        <v>809</v>
-      </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
       </c>
@@ -31709,7 +31704,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>50</v>
@@ -31738,7 +31733,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31764,16 +31759,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L252" t="s" s="2">
+      <c r="M252" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31802,7 +31797,7 @@
       </c>
       <c r="X252" s="2"/>
       <c r="Y252" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31820,7 +31815,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31849,7 +31844,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31872,19 +31867,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L253" t="s" s="2">
+      <c r="M253" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M253" t="s" s="2">
+      <c r="N253" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31933,7 +31928,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31962,7 +31957,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31985,19 +31980,19 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -32046,7 +32041,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -32075,10 +32070,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C255" t="s" s="2">
         <v>43</v>
@@ -32103,14 +32098,14 @@
         <v>346</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -32159,7 +32154,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32188,7 +32183,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32297,7 +32292,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32408,7 +32403,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32521,7 +32516,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32547,16 +32542,16 @@
         <v>178</v>
       </c>
       <c r="K259" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L259" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L259" t="s" s="2">
+      <c r="M259" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M259" t="s" s="2">
+      <c r="N259" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N259" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32566,7 +32561,7 @@
         <v>43</v>
       </c>
       <c r="R259" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>43</v>
@@ -32584,11 +32579,11 @@
         <v>116</v>
       </c>
       <c r="X259" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="Y259" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="Y259" t="s" s="2">
-        <v>809</v>
-      </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
       </c>
@@ -32605,7 +32600,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>50</v>
@@ -32634,7 +32629,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32660,16 +32655,16 @@
         <v>178</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L260" t="s" s="2">
+      <c r="M260" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M260" t="s" s="2">
+      <c r="N260" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N260" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32697,11 +32692,11 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Y260" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="Y260" t="s" s="2">
-        <v>816</v>
-      </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
       </c>
@@ -32718,7 +32713,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32747,7 +32742,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32770,19 +32765,19 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L261" t="s" s="2">
+      <c r="M261" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M261" t="s" s="2">
+      <c r="N261" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N261" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32831,7 +32826,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32860,7 +32855,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32883,19 +32878,19 @@
         <v>43</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L262" t="s" s="2">
+      <c r="M262" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32944,7 +32939,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32973,7 +32968,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32999,10 +32994,10 @@
         <v>346</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -33053,7 +33048,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -33082,7 +33077,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33191,7 +33186,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33302,7 +33297,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33415,7 +33410,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33441,14 +33436,14 @@
         <v>454</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33497,7 +33492,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33526,7 +33521,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33552,14 +33547,14 @@
         <v>178</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33587,11 +33582,11 @@
         <v>116</v>
       </c>
       <c r="X268" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="Y268" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="Y268" t="s" s="2">
-        <v>848</v>
-      </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
       </c>
@@ -33608,7 +33603,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33637,7 +33632,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33663,16 +33658,16 @@
         <v>178</v>
       </c>
       <c r="K269" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L269" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="L269" t="s" s="2">
-        <v>716</v>
-      </c>
       <c r="M269" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33700,11 +33695,11 @@
         <v>116</v>
       </c>
       <c r="X269" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Y269" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Y269" t="s" s="2">
-        <v>720</v>
-      </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
       </c>
@@ -33721,7 +33716,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33750,11 +33745,11 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33776,16 +33771,16 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L270" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M270" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="M270" t="s" s="2">
+      <c r="N270" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="N270" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33813,11 +33808,11 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="Y270" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="Y270" t="s" s="2">
-        <v>854</v>
-      </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
       </c>
@@ -33834,7 +33829,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33863,7 +33858,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33889,16 +33884,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L271" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M271" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="N271" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33926,11 +33921,11 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="Y271" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="Y271" t="s" s="2">
-        <v>858</v>
-      </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
       </c>
@@ -33947,7 +33942,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33976,7 +33971,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -34002,16 +33997,16 @@
         <v>178</v>
       </c>
       <c r="K272" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L272" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L272" t="s" s="2">
+      <c r="M272" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M272" t="s" s="2">
+      <c r="N272" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N272" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -34039,11 +34034,11 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y272" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="Y272" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
       </c>
@@ -34060,7 +34055,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -34089,7 +34084,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34112,17 +34107,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -34171,7 +34166,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34200,7 +34195,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34223,17 +34218,17 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="K274" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="K274" t="s" s="2">
+      <c r="L274" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L274" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34282,7 +34277,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34311,7 +34306,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34334,19 +34329,19 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="K275" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="K275" t="s" s="2">
+      <c r="L275" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="L275" t="s" s="2">
+      <c r="M275" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M275" t="s" s="2">
+      <c r="N275" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34395,7 +34390,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34424,7 +34419,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34447,19 +34442,19 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K276" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L276" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L276" t="s" s="2">
+      <c r="M276" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M276" t="s" s="2">
+      <c r="N276" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34508,7 +34503,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34537,7 +34532,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34560,17 +34555,17 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K277" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="K277" t="s" s="2">
+      <c r="L277" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L277" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34619,7 +34614,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34648,7 +34643,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34674,14 +34669,14 @@
         <v>454</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34730,7 +34725,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34759,7 +34754,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34785,10 +34780,10 @@
         <v>43</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>869</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -34839,7 +34834,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34868,7 +34863,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34894,10 +34889,10 @@
         <v>346</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -34948,7 +34943,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34977,7 +34972,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -35086,7 +35081,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35197,7 +35192,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35310,7 +35305,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35336,14 +35331,14 @@
         <v>454</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35392,7 +35387,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>50</v>
@@ -35421,7 +35416,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35447,14 +35442,14 @@
         <v>178</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35482,11 +35477,11 @@
         <v>116</v>
       </c>
       <c r="X285" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="Y285" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="Y285" t="s" s="2">
-        <v>848</v>
-      </c>
       <c r="Z285" t="s" s="2">
         <v>43</v>
       </c>
@@ -35503,7 +35498,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35532,7 +35527,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35558,16 +35553,16 @@
         <v>178</v>
       </c>
       <c r="K286" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L286" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="L286" t="s" s="2">
+      <c r="M286" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="M286" t="s" s="2">
+      <c r="N286" t="s" s="2">
         <v>717</v>
-      </c>
-      <c r="N286" t="s" s="2">
-        <v>718</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35595,11 +35590,11 @@
         <v>116</v>
       </c>
       <c r="X286" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Y286" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Y286" t="s" s="2">
-        <v>720</v>
-      </c>
       <c r="Z286" t="s" s="2">
         <v>43</v>
       </c>
@@ -35616,7 +35611,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35645,11 +35640,11 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35671,16 +35666,16 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L287" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M287" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="M287" t="s" s="2">
+      <c r="N287" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="N287" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35708,11 +35703,11 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="Y287" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="Y287" t="s" s="2">
-        <v>854</v>
-      </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
       </c>
@@ -35729,7 +35724,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35758,7 +35753,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35784,16 +35779,16 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35821,11 +35816,11 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="Y288" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="Y288" t="s" s="2">
-        <v>858</v>
-      </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
       </c>
@@ -35842,7 +35837,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35871,7 +35866,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35897,16 +35892,16 @@
         <v>178</v>
       </c>
       <c r="K289" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L289" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L289" t="s" s="2">
+      <c r="M289" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M289" t="s" s="2">
+      <c r="N289" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35934,11 +35929,11 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y289" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="Y289" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
       </c>
@@ -35955,7 +35950,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35984,7 +35979,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -36007,17 +36002,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -36066,7 +36061,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -36095,7 +36090,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36118,17 +36113,17 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="K291" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="K291" t="s" s="2">
+      <c r="L291" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L291" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36177,7 +36172,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36206,7 +36201,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36229,19 +36224,19 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="K292" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="K292" t="s" s="2">
+      <c r="L292" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="L292" t="s" s="2">
+      <c r="M292" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M292" t="s" s="2">
+      <c r="N292" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N292" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36290,7 +36285,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36319,7 +36314,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36342,19 +36337,19 @@
         <v>43</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K293" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L293" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L293" t="s" s="2">
+      <c r="M293" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M293" t="s" s="2">
+      <c r="N293" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N293" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36403,7 +36398,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36432,7 +36427,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36455,17 +36450,17 @@
         <v>43</v>
       </c>
       <c r="J294" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="K294" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="K294" t="s" s="2">
+      <c r="L294" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L294" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36514,7 +36509,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36543,7 +36538,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36569,14 +36564,14 @@
         <v>454</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36625,7 +36620,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36654,7 +36649,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36680,10 +36675,10 @@
         <v>43</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -36734,7 +36729,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36763,7 +36758,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36789,14 +36784,14 @@
         <v>346</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>893</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36845,7 +36840,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36874,7 +36869,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36983,7 +36978,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -37094,7 +37089,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37207,7 +37202,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37233,14 +37228,14 @@
         <v>454</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>899</v>
-      </c>
-      <c r="L301" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37289,7 +37284,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37318,7 +37313,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37344,14 +37339,14 @@
         <v>454</v>
       </c>
       <c r="K302" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="L302" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37400,7 +37395,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37429,7 +37424,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37455,14 +37450,14 @@
         <v>454</v>
       </c>
       <c r="K303" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="L303" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37511,7 +37506,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37540,7 +37535,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37563,17 +37558,17 @@
         <v>43</v>
       </c>
       <c r="J304" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="K304" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="K304" t="s" s="2">
+      <c r="L304" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="L304" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37622,7 +37617,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37651,11 +37646,11 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37677,16 +37672,16 @@
         <v>178</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L305" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M305" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="M305" t="s" s="2">
+      <c r="N305" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37714,11 +37709,11 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="Y305" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="Y305" t="s" s="2">
-        <v>854</v>
-      </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
       </c>
@@ -37735,7 +37730,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>50</v>
@@ -37764,7 +37759,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37790,16 +37785,16 @@
         <v>178</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L306" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M306" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M306" t="s" s="2">
+      <c r="N306" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37827,11 +37822,11 @@
         <v>116</v>
       </c>
       <c r="X306" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="Y306" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="Y306" t="s" s="2">
-        <v>858</v>
-      </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
       </c>
@@ -37848,7 +37843,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37877,7 +37872,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37903,16 +37898,16 @@
         <v>178</v>
       </c>
       <c r="K307" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L307" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L307" t="s" s="2">
+      <c r="M307" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M307" t="s" s="2">
+      <c r="N307" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N307" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37940,11 +37935,11 @@
         <v>116</v>
       </c>
       <c r="X307" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y307" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="Y307" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="Z307" t="s" s="2">
         <v>43</v>
       </c>
@@ -37961,7 +37956,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37990,7 +37985,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -38016,14 +38011,14 @@
         <v>510</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="L308" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -38072,7 +38067,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -38101,7 +38096,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38124,17 +38119,17 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="K309" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="K309" t="s" s="2">
+      <c r="L309" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="L309" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="M309" s="2"/>
       <c r="N309" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38162,11 +38157,11 @@
         <v>116</v>
       </c>
       <c r="X309" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="Y309" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="Y309" t="s" s="2">
-        <v>751</v>
-      </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
       </c>
@@ -38183,7 +38178,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38212,7 +38207,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38235,17 +38230,17 @@
         <v>43</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M310" s="2"/>
       <c r="N310" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38294,7 +38289,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38323,7 +38318,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38346,17 +38341,17 @@
         <v>43</v>
       </c>
       <c r="J311" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="K311" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="K311" t="s" s="2">
+      <c r="L311" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38405,7 +38400,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38434,7 +38429,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38457,19 +38452,19 @@
         <v>43</v>
       </c>
       <c r="J312" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="K312" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="K312" t="s" s="2">
+      <c r="L312" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="L312" t="s" s="2">
+      <c r="M312" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M312" t="s" s="2">
+      <c r="N312" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38518,7 +38513,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38547,7 +38542,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38570,19 +38565,19 @@
         <v>43</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L313" t="s" s="2">
+      <c r="M313" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M313" t="s" s="2">
+      <c r="N313" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N313" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38631,7 +38626,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38660,7 +38655,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38686,16 +38681,16 @@
         <v>178</v>
       </c>
       <c r="K314" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L314" t="s" s="2">
-        <v>776</v>
-      </c>
       <c r="M314" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38723,11 +38718,11 @@
         <v>116</v>
       </c>
       <c r="X314" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="Y314" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="Y314" t="s" s="2">
-        <v>780</v>
-      </c>
       <c r="Z314" t="s" s="2">
         <v>43</v>
       </c>
@@ -38744,7 +38739,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38773,7 +38768,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38799,14 +38794,14 @@
         <v>178</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38834,11 +38829,11 @@
         <v>116</v>
       </c>
       <c r="X315" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="Y315" t="s" s="2">
         <v>784</v>
       </c>
-      <c r="Y315" t="s" s="2">
-        <v>785</v>
-      </c>
       <c r="Z315" t="s" s="2">
         <v>43</v>
       </c>
@@ -38855,7 +38850,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38884,7 +38879,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38910,14 +38905,14 @@
         <v>454</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38966,7 +38961,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38995,7 +38990,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -39021,10 +39016,10 @@
         <v>43</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -39075,7 +39070,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -39104,7 +39099,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39130,10 +39125,10 @@
         <v>346</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -39184,7 +39179,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39213,7 +39208,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39322,7 +39317,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39433,7 +39428,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39546,11 +39541,11 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -39572,16 +39567,16 @@
         <v>178</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L322" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M322" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="M322" t="s" s="2">
+      <c r="N322" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39609,11 +39604,11 @@
         <v>116</v>
       </c>
       <c r="X322" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="Y322" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="Y322" t="s" s="2">
-        <v>854</v>
-      </c>
       <c r="Z322" t="s" s="2">
         <v>43</v>
       </c>
@@ -39630,7 +39625,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>50</v>
@@ -39659,7 +39654,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39685,16 +39680,16 @@
         <v>178</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L323" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M323" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M323" t="s" s="2">
+      <c r="N323" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39722,11 +39717,11 @@
         <v>116</v>
       </c>
       <c r="X323" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="Y323" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="Y323" t="s" s="2">
-        <v>858</v>
-      </c>
       <c r="Z323" t="s" s="2">
         <v>43</v>
       </c>
@@ -39743,7 +39738,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39772,7 +39767,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39795,17 +39790,17 @@
         <v>43</v>
       </c>
       <c r="J324" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39854,7 +39849,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39883,7 +39878,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39906,17 +39901,17 @@
         <v>43</v>
       </c>
       <c r="J325" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="K325" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="K325" t="s" s="2">
+      <c r="L325" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39965,7 +39960,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39994,7 +39989,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -40017,19 +40012,19 @@
         <v>43</v>
       </c>
       <c r="J326" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="K326" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="K326" t="s" s="2">
+      <c r="L326" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="L326" t="s" s="2">
+      <c r="M326" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M326" t="s" s="2">
+      <c r="N326" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -40078,7 +40073,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -40107,7 +40102,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40130,19 +40125,19 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L327" t="s" s="2">
+      <c r="M327" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M327" t="s" s="2">
+      <c r="N327" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N327" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40191,7 +40186,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40220,7 +40215,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40246,14 +40241,14 @@
         <v>454</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40302,7 +40297,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40331,7 +40326,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40357,10 +40352,10 @@
         <v>43</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -40411,7 +40406,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40440,7 +40435,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40466,10 +40461,10 @@
         <v>346</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -40520,7 +40515,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40549,7 +40544,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40658,7 +40653,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40769,7 +40764,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40882,11 +40877,11 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40908,16 +40903,16 @@
         <v>178</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L334" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M334" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="M334" t="s" s="2">
+      <c r="N334" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="N334" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40945,11 +40940,11 @@
         <v>116</v>
       </c>
       <c r="X334" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="Y334" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="Y334" t="s" s="2">
-        <v>854</v>
-      </c>
       <c r="Z334" t="s" s="2">
         <v>43</v>
       </c>
@@ -40966,7 +40961,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>50</v>
@@ -40995,7 +40990,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -41021,16 +41016,16 @@
         <v>178</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="L335" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M335" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M335" t="s" s="2">
+      <c r="N335" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -41058,11 +41053,11 @@
         <v>116</v>
       </c>
       <c r="X335" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="Y335" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="Y335" t="s" s="2">
-        <v>858</v>
-      </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
       </c>
@@ -41079,7 +41074,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -41108,7 +41103,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41131,17 +41126,17 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41190,7 +41185,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41219,7 +41214,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41242,17 +41237,17 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="K337" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="K337" t="s" s="2">
+      <c r="L337" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L337" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41301,7 +41296,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41330,7 +41325,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41353,19 +41348,19 @@
         <v>43</v>
       </c>
       <c r="J338" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="K338" t="s" s="2">
         <v>763</v>
       </c>
-      <c r="K338" t="s" s="2">
+      <c r="L338" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="L338" t="s" s="2">
+      <c r="M338" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="M338" t="s" s="2">
+      <c r="N338" t="s" s="2">
         <v>766</v>
-      </c>
-      <c r="N338" t="s" s="2">
-        <v>767</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41414,7 +41409,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41443,7 +41438,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41466,19 +41461,19 @@
         <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K339" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="L339" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="L339" t="s" s="2">
+      <c r="M339" t="s" s="2">
         <v>770</v>
       </c>
-      <c r="M339" t="s" s="2">
+      <c r="N339" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N339" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41527,7 +41522,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41556,7 +41551,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41582,14 +41577,14 @@
         <v>454</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M340" s="2"/>
       <c r="N340" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41638,7 +41633,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41667,7 +41662,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41693,10 +41688,10 @@
         <v>43</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -41747,7 +41742,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41776,7 +41771,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41802,14 +41797,14 @@
         <v>346</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>957</v>
-      </c>
-      <c r="L342" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41846,7 +41841,7 @@
         <v>43</v>
       </c>
       <c r="AA342" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AB342" t="s" s="2">
         <v>488</v>
@@ -41858,7 +41853,7 @@
         <v>536</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41887,7 +41882,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41996,7 +41991,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -42107,7 +42102,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42220,7 +42215,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42246,16 +42241,16 @@
         <v>178</v>
       </c>
       <c r="K346" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L346" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L346" t="s" s="2">
+      <c r="M346" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M346" t="s" s="2">
+      <c r="N346" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42283,11 +42278,11 @@
         <v>116</v>
       </c>
       <c r="X346" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="Y346" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="Y346" t="s" s="2">
-        <v>809</v>
-      </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
       </c>
@@ -42304,7 +42299,7 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>50</v>
@@ -42333,7 +42328,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42359,16 +42354,16 @@
         <v>178</v>
       </c>
       <c r="K347" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L347" t="s" s="2">
+      <c r="M347" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M347" t="s" s="2">
+      <c r="N347" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N347" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42396,11 +42391,11 @@
         <v>116</v>
       </c>
       <c r="X347" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Y347" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="Y347" t="s" s="2">
-        <v>816</v>
-      </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
       </c>
@@ -42417,7 +42412,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42446,7 +42441,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42469,19 +42464,19 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K348" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L348" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L348" t="s" s="2">
+      <c r="M348" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M348" t="s" s="2">
+      <c r="N348" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N348" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42530,7 +42525,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42559,7 +42554,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42582,19 +42577,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K349" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L349" t="s" s="2">
+      <c r="M349" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M349" t="s" s="2">
+      <c r="N349" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N349" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42643,7 +42638,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42672,10 +42667,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C350" t="s" s="2">
         <v>43</v>
@@ -42700,14 +42695,14 @@
         <v>346</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42756,7 +42751,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42785,7 +42780,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42894,7 +42889,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -43005,7 +43000,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -43118,7 +43113,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43144,16 +43139,16 @@
         <v>178</v>
       </c>
       <c r="K354" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L354" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L354" t="s" s="2">
+      <c r="M354" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M354" t="s" s="2">
+      <c r="N354" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43182,7 +43177,7 @@
       </c>
       <c r="X354" s="2"/>
       <c r="Y354" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Z354" t="s" s="2">
         <v>43</v>
@@ -43200,7 +43195,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>50</v>
@@ -43229,7 +43224,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43255,16 +43250,16 @@
         <v>178</v>
       </c>
       <c r="K355" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L355" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="L355" t="s" s="2">
+      <c r="M355" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M355" t="s" s="2">
+      <c r="N355" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N355" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43292,11 +43287,11 @@
         <v>116</v>
       </c>
       <c r="X355" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="Y355" t="s" s="2">
         <v>815</v>
       </c>
-      <c r="Y355" t="s" s="2">
-        <v>816</v>
-      </c>
       <c r="Z355" t="s" s="2">
         <v>43</v>
       </c>
@@ -43313,7 +43308,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43342,7 +43337,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43365,19 +43360,19 @@
         <v>43</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K356" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L356" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L356" t="s" s="2">
+      <c r="M356" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M356" t="s" s="2">
+      <c r="N356" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43426,7 +43421,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>41</v>
@@ -43455,7 +43450,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43478,19 +43473,19 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K357" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L357" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L357" t="s" s="2">
+      <c r="M357" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M357" t="s" s="2">
+      <c r="N357" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N357" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43539,7 +43534,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43568,10 +43563,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C358" t="s" s="2">
         <v>43</v>
@@ -43596,14 +43591,14 @@
         <v>346</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43652,7 +43647,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43681,7 +43676,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43790,7 +43785,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43901,7 +43896,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -44014,7 +44009,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -44040,16 +44035,16 @@
         <v>178</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>804</v>
       </c>
-      <c r="L362" t="s" s="2">
+      <c r="M362" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="M362" t="s" s="2">
+      <c r="N362" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -44059,7 +44054,7 @@
         <v>43</v>
       </c>
       <c r="R362" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="S362" t="s" s="2">
         <v>43</v>
@@ -44077,11 +44072,11 @@
         <v>116</v>
       </c>
       <c r="X362" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="Y362" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="Y362" t="s" s="2">
-        <v>809</v>
-      </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
       </c>
@@ -44098,7 +44093,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>50</v>
@@ -44127,7 +44122,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44153,16 +44148,16 @@
         <v>178</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L363" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="M363" t="s" s="2">
         <v>812</v>
       </c>
-      <c r="M363" t="s" s="2">
+      <c r="N363" t="s" s="2">
         <v>813</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44191,7 +44186,7 @@
       </c>
       <c r="X363" s="2"/>
       <c r="Y363" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44209,7 +44204,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44238,7 +44233,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44261,19 +44256,19 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K364" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="L364" t="s" s="2">
         <v>818</v>
       </c>
-      <c r="L364" t="s" s="2">
+      <c r="M364" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M364" t="s" s="2">
+      <c r="N364" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N364" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44322,7 +44317,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44351,7 +44346,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44374,19 +44369,19 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K365" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L365" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="L365" t="s" s="2">
+      <c r="M365" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="M365" t="s" s="2">
+      <c r="N365" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="N365" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44435,7 +44430,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44464,7 +44459,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44490,16 +44485,16 @@
         <v>346</v>
       </c>
       <c r="K366" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L366" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="L366" t="s" s="2">
+      <c r="M366" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M366" t="s" s="2">
+      <c r="N366" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N366" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44536,7 +44531,7 @@
         <v>43</v>
       </c>
       <c r="AA366" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>488</v>
@@ -44548,7 +44543,7 @@
         <v>76</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44577,7 +44572,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44686,7 +44681,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44797,7 +44792,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44910,7 +44905,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44936,16 +44931,16 @@
         <v>178</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L370" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N370" t="s" s="2">
         <v>978</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N370" t="s" s="2">
-        <v>979</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44973,11 +44968,11 @@
         <v>116</v>
       </c>
       <c r="X370" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="Y370" t="s" s="2">
         <v>808</v>
       </c>
-      <c r="Y370" t="s" s="2">
-        <v>809</v>
-      </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
       </c>
@@ -44994,7 +44989,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>50</v>
@@ -45023,7 +45018,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -45046,17 +45041,17 @@
         <v>51</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>981</v>
-      </c>
-      <c r="L371" t="s" s="2">
-        <v>982</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -45105,7 +45100,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>50</v>
@@ -45134,10 +45129,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C372" t="s" s="2">
         <v>43</v>
@@ -45162,16 +45157,16 @@
         <v>346</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L372" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="M372" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M372" t="s" s="2">
+      <c r="N372" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N372" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45220,7 +45215,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45249,7 +45244,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45358,7 +45353,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45469,7 +45464,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45582,7 +45577,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45608,16 +45603,16 @@
         <v>178</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L376" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N376" t="s" s="2">
         <v>978</v>
-      </c>
-      <c r="M376" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N376" t="s" s="2">
-        <v>979</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45646,7 +45641,7 @@
       </c>
       <c r="X376" s="2"/>
       <c r="Y376" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45664,7 +45659,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>50</v>
@@ -45693,7 +45688,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45716,17 +45711,17 @@
         <v>51</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M377" s="2"/>
       <c r="N377" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45775,7 +45770,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>50</v>
@@ -45804,10 +45799,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C378" t="s" s="2">
         <v>43</v>
@@ -45832,16 +45827,16 @@
         <v>346</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L378" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="M378" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M378" t="s" s="2">
+      <c r="N378" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N378" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45890,7 +45885,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45919,7 +45914,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -46028,7 +46023,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -46139,7 +46134,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46252,7 +46247,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46278,16 +46273,16 @@
         <v>178</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L382" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="N382" t="s" s="2">
         <v>978</v>
-      </c>
-      <c r="M382" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>979</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46316,7 +46311,7 @@
       </c>
       <c r="X382" s="2"/>
       <c r="Y382" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
@@ -46334,7 +46329,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>50</v>
@@ -46363,7 +46358,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46386,17 +46381,17 @@
         <v>51</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K383" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="L383" t="s" s="2">
         <v>981</v>
-      </c>
-      <c r="L383" t="s" s="2">
-        <v>982</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46445,7 +46440,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>50</v>
@@ -46474,7 +46469,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46500,14 +46495,14 @@
         <v>346</v>
       </c>
       <c r="K384" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="L384" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="L384" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46556,7 +46551,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46585,7 +46580,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46694,7 +46689,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46805,7 +46800,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46918,7 +46913,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46944,14 +46939,14 @@
         <v>178</v>
       </c>
       <c r="K388" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="L388" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="L388" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46980,7 +46975,7 @@
       </c>
       <c r="X388" s="2"/>
       <c r="Y388" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -46998,7 +46993,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -47027,7 +47022,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -47050,19 +47045,19 @@
         <v>43</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K389" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="L389" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="L389" t="s" s="2">
+      <c r="M389" t="s" s="2">
         <v>1003</v>
       </c>
-      <c r="M389" t="s" s="2">
+      <c r="N389" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="N389" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -47111,7 +47106,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -47140,7 +47135,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47166,14 +47161,14 @@
         <v>178</v>
       </c>
       <c r="K390" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L390" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="L390" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="M390" s="2"/>
       <c r="N390" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47201,11 +47196,11 @@
         <v>116</v>
       </c>
       <c r="X390" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="Y390" t="s" s="2">
         <v>1010</v>
       </c>
-      <c r="Y390" t="s" s="2">
-        <v>1011</v>
-      </c>
       <c r="Z390" t="s" s="2">
         <v>43</v>
       </c>
@@ -47222,7 +47217,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -47251,7 +47246,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47277,14 +47272,14 @@
         <v>534</v>
       </c>
       <c r="K391" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="L391" t="s" s="2">
         <v>1013</v>
-      </c>
-      <c r="L391" t="s" s="2">
-        <v>1014</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47333,7 +47328,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47362,7 +47357,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47385,17 +47380,17 @@
         <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K392" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L392" t="s" s="2">
         <v>1017</v>
-      </c>
-      <c r="L392" t="s" s="2">
-        <v>1018</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47444,7 +47439,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47473,7 +47468,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47499,16 +47494,16 @@
         <v>159</v>
       </c>
       <c r="K393" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="L393" t="s" s="2">
         <v>1021</v>
       </c>
-      <c r="L393" t="s" s="2">
+      <c r="M393" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="M393" t="s" s="2">
+      <c r="N393" t="s" s="2">
         <v>1023</v>
-      </c>
-      <c r="N393" t="s" s="2">
-        <v>1024</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47557,7 +47552,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47586,7 +47581,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47612,16 +47607,16 @@
         <v>178</v>
       </c>
       <c r="K394" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="L394" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="L394" t="s" s="2">
+      <c r="M394" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="M394" t="s" s="2">
+      <c r="N394" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="N394" t="s" s="2">
-        <v>1029</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47649,11 +47644,11 @@
         <v>116</v>
       </c>
       <c r="X394" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="Y394" t="s" s="2">
         <v>1030</v>
       </c>
-      <c r="Y394" t="s" s="2">
-        <v>1031</v>
-      </c>
       <c r="Z394" t="s" s="2">
         <v>43</v>
       </c>
@@ -47670,7 +47665,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47699,7 +47694,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47722,19 +47717,19 @@
         <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="K395" t="s" s="2">
         <v>1033</v>
       </c>
-      <c r="K395" t="s" s="2">
+      <c r="L395" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="L395" t="s" s="2">
+      <c r="M395" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="M395" t="s" s="2">
+      <c r="N395" t="s" s="2">
         <v>1036</v>
-      </c>
-      <c r="N395" t="s" s="2">
-        <v>1037</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47783,7 +47778,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47812,7 +47807,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47838,14 +47833,14 @@
         <v>346</v>
       </c>
       <c r="K396" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="L396" t="s" s="2">
         <v>1039</v>
-      </c>
-      <c r="L396" t="s" s="2">
-        <v>1040</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>43</v>
@@ -47894,7 +47889,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47923,7 +47918,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -48032,7 +48027,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48143,7 +48138,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48256,7 +48251,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48282,14 +48277,14 @@
         <v>454</v>
       </c>
       <c r="K400" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="L400" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="L400" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="M400" s="2"/>
       <c r="N400" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48338,7 +48333,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48367,7 +48362,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48393,14 +48388,14 @@
         <v>126</v>
       </c>
       <c r="K401" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="L401" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="L401" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48428,11 +48423,11 @@
         <v>172</v>
       </c>
       <c r="X401" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="Y401" t="s" s="2">
         <v>1053</v>
       </c>
-      <c r="Y401" t="s" s="2">
-        <v>1054</v>
-      </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
       </c>
@@ -48449,7 +48444,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48478,7 +48473,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48504,14 +48499,14 @@
         <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="L402" t="s" s="2">
         <v>1056</v>
-      </c>
-      <c r="L402" t="s" s="2">
-        <v>1057</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48560,7 +48555,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48589,7 +48584,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48615,16 +48610,16 @@
         <v>178</v>
       </c>
       <c r="K403" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="L403" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="L403" t="s" s="2">
+      <c r="M403" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="M403" t="s" s="2">
+      <c r="N403" t="s" s="2">
         <v>1062</v>
-      </c>
-      <c r="N403" t="s" s="2">
-        <v>1063</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48673,7 +48668,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48702,7 +48697,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48728,16 +48723,16 @@
         <v>205</v>
       </c>
       <c r="K404" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="L404" t="s" s="2">
         <v>1065</v>
       </c>
-      <c r="L404" t="s" s="2">
+      <c r="M404" t="s" s="2">
         <v>1066</v>
       </c>
-      <c r="M404" t="s" s="2">
+      <c r="N404" t="s" s="2">
         <v>1067</v>
-      </c>
-      <c r="N404" t="s" s="2">
-        <v>1068</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48786,7 +48781,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48815,7 +48810,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48841,10 +48836,10 @@
         <v>346</v>
       </c>
       <c r="K405" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="L405" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="L405" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
@@ -48895,7 +48890,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48924,7 +48919,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -49033,7 +49028,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -49144,7 +49139,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49257,7 +49252,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49283,16 +49278,16 @@
         <v>178</v>
       </c>
       <c r="K409" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L409" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="L409" t="s" s="2">
+      <c r="M409" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="M409" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="N409" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -49320,11 +49315,11 @@
         <v>116</v>
       </c>
       <c r="X409" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="Y409" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="Y409" t="s" s="2">
-        <v>720</v>
-      </c>
       <c r="Z409" t="s" s="2">
         <v>43</v>
       </c>
@@ -49341,7 +49336,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>50</v>
@@ -49370,7 +49365,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49396,14 +49391,14 @@
         <v>465</v>
       </c>
       <c r="K410" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="L410" t="s" s="2">
         <v>1078</v>
-      </c>
-      <c r="L410" t="s" s="2">
-        <v>1079</v>
       </c>
       <c r="M410" s="2"/>
       <c r="N410" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -49452,7 +49447,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>
@@ -49481,7 +49476,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49507,16 +49502,16 @@
         <v>52</v>
       </c>
       <c r="K411" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="L411" t="s" s="2">
         <v>1082</v>
       </c>
-      <c r="L411" t="s" s="2">
+      <c r="M411" t="s" s="2">
         <v>1083</v>
       </c>
-      <c r="M411" t="s" s="2">
+      <c r="N411" t="s" s="2">
         <v>1084</v>
-      </c>
-      <c r="N411" t="s" s="2">
-        <v>1085</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49565,7 +49560,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
@@ -49594,7 +49589,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49620,16 +49615,16 @@
         <v>52</v>
       </c>
       <c r="K412" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="L412" t="s" s="2">
         <v>1087</v>
       </c>
-      <c r="L412" t="s" s="2">
+      <c r="M412" t="s" s="2">
         <v>1088</v>
       </c>
-      <c r="M412" t="s" s="2">
+      <c r="N412" t="s" s="2">
         <v>1089</v>
-      </c>
-      <c r="N412" t="s" s="2">
-        <v>1090</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49678,7 +49673,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49707,7 +49702,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49733,14 +49728,14 @@
         <v>178</v>
       </c>
       <c r="K413" t="s" s="2">
+        <v>1091</v>
+      </c>
+      <c r="L413" t="s" s="2">
         <v>1092</v>
-      </c>
-      <c r="L413" t="s" s="2">
-        <v>1093</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49768,11 +49763,11 @@
         <v>116</v>
       </c>
       <c r="X413" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="Y413" t="s" s="2">
         <v>1095</v>
       </c>
-      <c r="Y413" t="s" s="2">
-        <v>1096</v>
-      </c>
       <c r="Z413" t="s" s="2">
         <v>43</v>
       </c>
@@ -49789,7 +49784,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>
@@ -49818,7 +49813,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49844,14 +49839,14 @@
         <v>178</v>
       </c>
       <c r="K414" t="s" s="2">
+        <v>1097</v>
+      </c>
+      <c r="L414" t="s" s="2">
         <v>1098</v>
-      </c>
-      <c r="L414" t="s" s="2">
-        <v>1099</v>
       </c>
       <c r="M414" s="2"/>
       <c r="N414" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49879,11 +49874,11 @@
         <v>116</v>
       </c>
       <c r="X414" t="s" s="2">
+        <v>1100</v>
+      </c>
+      <c r="Y414" t="s" s="2">
         <v>1101</v>
       </c>
-      <c r="Y414" t="s" s="2">
-        <v>1102</v>
-      </c>
       <c r="Z414" t="s" s="2">
         <v>43</v>
       </c>
@@ -49900,7 +49895,7 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49929,7 +49924,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49955,14 +49950,14 @@
         <v>178</v>
       </c>
       <c r="K415" t="s" s="2">
+        <v>1103</v>
+      </c>
+      <c r="L415" t="s" s="2">
         <v>1104</v>
-      </c>
-      <c r="L415" t="s" s="2">
-        <v>1105</v>
       </c>
       <c r="M415" s="2"/>
       <c r="N415" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O415" t="s" s="2">
         <v>43</v>
@@ -49990,11 +49985,11 @@
         <v>116</v>
       </c>
       <c r="X415" t="s" s="2">
+        <v>1105</v>
+      </c>
+      <c r="Y415" t="s" s="2">
         <v>1106</v>
       </c>
-      <c r="Y415" t="s" s="2">
-        <v>1107</v>
-      </c>
       <c r="Z415" t="s" s="2">
         <v>43</v>
       </c>
@@ -50011,7 +50006,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -50040,7 +50035,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -50066,10 +50061,10 @@
         <v>346</v>
       </c>
       <c r="K416" t="s" s="2">
+        <v>1108</v>
+      </c>
+      <c r="L416" t="s" s="2">
         <v>1109</v>
-      </c>
-      <c r="L416" t="s" s="2">
-        <v>1110</v>
       </c>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
@@ -50120,7 +50115,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
@@ -50149,7 +50144,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50258,7 +50253,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50369,7 +50364,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50482,7 +50477,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50508,16 +50503,16 @@
         <v>178</v>
       </c>
       <c r="K420" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="L420" t="s" s="2">
+        <v>1114</v>
+      </c>
+      <c r="M420" t="s" s="2">
         <v>1115</v>
       </c>
-      <c r="M420" t="s" s="2">
+      <c r="N420" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="N420" t="s" s="2">
-        <v>1117</v>
       </c>
       <c r="O420" t="s" s="2">
         <v>43</v>
@@ -50545,11 +50540,11 @@
         <v>116</v>
       </c>
       <c r="X420" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="Y420" t="s" s="2">
         <v>1118</v>
       </c>
-      <c r="Y420" t="s" s="2">
-        <v>1119</v>
-      </c>
       <c r="Z420" t="s" s="2">
         <v>43</v>
       </c>
@@ -50566,7 +50561,7 @@
         <v>43</v>
       </c>
       <c r="AE420" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AF420" t="s" s="2">
         <v>50</v>
@@ -50595,7 +50590,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50618,17 +50613,17 @@
         <v>43</v>
       </c>
       <c r="J421" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="K421" t="s" s="2">
         <v>1121</v>
       </c>
-      <c r="K421" t="s" s="2">
+      <c r="L421" t="s" s="2">
         <v>1122</v>
-      </c>
-      <c r="L421" t="s" s="2">
-        <v>1123</v>
       </c>
       <c r="M421" s="2"/>
       <c r="N421" t="s" s="2">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50677,7 +50672,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50706,7 +50701,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50729,17 +50724,17 @@
         <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
+        <v>1125</v>
+      </c>
+      <c r="K422" t="s" s="2">
         <v>1126</v>
       </c>
-      <c r="K422" t="s" s="2">
+      <c r="L422" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="L422" t="s" s="2">
-        <v>1128</v>
       </c>
       <c r="M422" s="2"/>
       <c r="N422" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50788,7 +50783,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
@@ -9692,7 +9692,7 @@
         <v>43</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
@@ -13311,7 +13311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
         <v>502</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>43</v>
@@ -13424,7 +13424,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>508</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>50</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>43</v>
@@ -13533,7 +13533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>512</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>43</v>
@@ -14540,7 +14540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>508</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>50</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>43</v>
@@ -14649,7 +14649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>512</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>43</v>
@@ -15545,7 +15545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
         <v>502</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>43</v>
@@ -15765,7 +15765,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>508</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>43</v>
@@ -15876,7 +15876,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>512</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>43</v>
@@ -16772,7 +16772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
         <v>502</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>43</v>
@@ -16883,7 +16883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>508</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>50</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>43</v>
@@ -16992,7 +16992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>512</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>50</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>43</v>
@@ -17888,7 +17888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
         <v>502</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>50</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>43</v>
@@ -17999,7 +17999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>508</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>50</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>43</v>
@@ -18108,7 +18108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>512</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>43</v>
@@ -19004,7 +19004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
         <v>502</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>50</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>43</v>
@@ -19115,7 +19115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>508</v>
       </c>
@@ -19131,7 +19131,7 @@
         <v>50</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>43</v>
@@ -19224,7 +19224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>512</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>43</v>
@@ -20120,7 +20120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
         <v>502</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>50</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>43</v>
@@ -20231,7 +20231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>508</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>50</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>43</v>
@@ -20340,7 +20340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
         <v>512</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>50</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>43</v>
@@ -21236,7 +21236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
         <v>502</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>50</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>43</v>
@@ -21347,7 +21347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
         <v>508</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>50</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>43</v>
@@ -21456,7 +21456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
         <v>512</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>50</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>43</v>
@@ -22352,7 +22352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
         <v>502</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>50</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>43</v>
@@ -22481,7 +22481,7 @@
         <v>50</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>43</v>
@@ -22683,7 +22683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
         <v>512</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>50</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
@@ -13200,7 +13200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>496</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>43</v>
@@ -16772,7 +16772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>502</v>
       </c>
@@ -16782,13 +16782,13 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>43</v>
@@ -17888,7 +17888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>502</v>
       </c>
@@ -17898,13 +17898,13 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G128" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H128" t="s" s="2">
         <v>43</v>
@@ -19004,7 +19004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>502</v>
       </c>
@@ -19014,13 +19014,13 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>43</v>
@@ -20120,7 +20120,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>502</v>
       </c>
@@ -20130,13 +20130,13 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F148" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>43</v>
@@ -21236,7 +21236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>502</v>
       </c>
@@ -21246,13 +21246,13 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Inpatient-Institutional.xlsx
@@ -12741,7 +12741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>486</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>43</v>
@@ -13861,7 +13861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>486</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>43</v>
@@ -14979,7 +14979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>486</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>50</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>43</v>
@@ -16208,7 +16208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>486</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>43</v>
@@ -17328,7 +17328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>486</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>43</v>
@@ -18446,7 +18446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>486</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>50</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>43</v>
@@ -19564,7 +19564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>486</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>50</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>43</v>
@@ -20682,7 +20682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>486</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>50</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>43</v>
@@ -21800,7 +21800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>486</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>50</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>43</v>
